--- a/Code/Results/Cases/Case_2_229/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_229/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8405003574965804</v>
+        <v>0.2643290936523215</v>
       </c>
       <c r="C2">
-        <v>0.1234344779270202</v>
+        <v>0.0585737639768098</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3389552046629447</v>
+        <v>0.1749528900206911</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.1515439854190888</v>
+        <v>0.3168819009209329</v>
       </c>
       <c r="H2">
-        <v>0.1854621745804721</v>
+        <v>0.5047245492601675</v>
       </c>
       <c r="I2">
-        <v>0.1533004788236596</v>
+        <v>0.3922376018453271</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8893815885587912</v>
+        <v>0.2801417449290113</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5925472630842563</v>
+        <v>0.2115747923263669</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6584570645229917</v>
+        <v>1.573953420813424</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7369797038561501</v>
+        <v>0.2306756071028531</v>
       </c>
       <c r="C3">
-        <v>0.1122125502619866</v>
+        <v>0.05480638212192446</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2957017301040352</v>
+        <v>0.164369629743625</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.1553438300666095</v>
+        <v>0.3218032406899951</v>
       </c>
       <c r="H3">
-        <v>0.1928418130003742</v>
+        <v>0.5104184799795739</v>
       </c>
       <c r="I3">
-        <v>0.1636260659151603</v>
+        <v>0.3986876248649338</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7841190551602892</v>
+        <v>0.2455103952596005</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5136032535237902</v>
+        <v>0.1885901188429813</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6816472985462951</v>
+        <v>1.596099716611093</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6733210824087053</v>
+        <v>0.2099324705357617</v>
       </c>
       <c r="C4">
-        <v>0.1053156608546431</v>
+        <v>0.05248045025592774</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2696593847243705</v>
+        <v>0.1580070184653621</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.1583190843047397</v>
+        <v>0.3251053397435051</v>
       </c>
       <c r="H4">
-        <v>0.1977853856460783</v>
+        <v>0.5141542175905975</v>
       </c>
       <c r="I4">
-        <v>0.1704737530090927</v>
+        <v>0.4029023134959324</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7193761045799789</v>
+        <v>0.2241445995302058</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4654025105361299</v>
+        <v>0.1745133791047309</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6981038800828046</v>
+        <v>1.610786782893364</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6473502755353024</v>
+        <v>0.2014600260715156</v>
       </c>
       <c r="C5">
-        <v>0.1025028581235858</v>
+        <v>0.05152947622295301</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2591637122918797</v>
+        <v>0.1554480970526342</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.1596855287280192</v>
+        <v>0.3265213432891585</v>
       </c>
       <c r="H5">
-        <v>0.1999004370020536</v>
+        <v>0.5157368275565588</v>
       </c>
       <c r="I5">
-        <v>0.1733875149912496</v>
+        <v>0.4046837377835857</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6929595769917825</v>
+        <v>0.2154128216540272</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4458171287945802</v>
+        <v>0.1687861294694457</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7053451683281438</v>
+        <v>1.617045488359814</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6430359238208325</v>
+        <v>0.2000520264630268</v>
       </c>
       <c r="C6">
-        <v>0.1020356406664717</v>
+        <v>0.05137138015740561</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2574276059454093</v>
+        <v>0.1550252316321945</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.1599215150949185</v>
+        <v>0.32676071599154</v>
       </c>
       <c r="H6">
-        <v>0.2002576188172256</v>
+        <v>0.516003258891967</v>
       </c>
       <c r="I6">
-        <v>0.1738786631893454</v>
+        <v>0.404983400030412</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.688570977947137</v>
+        <v>0.2139614220102715</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.442568101404845</v>
+        <v>0.1678356787429323</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7065792563097517</v>
+        <v>1.61810125890571</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6729709566021995</v>
+        <v>0.2098182861229816</v>
       </c>
       <c r="C7">
-        <v>0.1052777363547506</v>
+        <v>0.05246763770493601</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2695173799737702</v>
+        <v>0.1579723709728142</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.1583368987238138</v>
+        <v>0.3251241517059249</v>
       </c>
       <c r="H7">
-        <v>0.1978135071603191</v>
+        <v>0.514175317195722</v>
       </c>
       <c r="I7">
-        <v>0.1705125555703031</v>
+        <v>0.40292607973117</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7190199833611643</v>
+        <v>0.2240269403091162</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4651381597948117</v>
+        <v>0.1744361022907484</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6981994011269066</v>
+        <v>1.610870082518218</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8048232429806035</v>
+        <v>0.2527422798815451</v>
       </c>
       <c r="C8">
-        <v>0.1195661387920808</v>
+        <v>0.05727745458470679</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3239264802909361</v>
+        <v>0.1712755290796579</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.1527163027364615</v>
+        <v>0.3185205079835178</v>
       </c>
       <c r="H8">
-        <v>0.1879190980489227</v>
+        <v>0.5066380835681947</v>
       </c>
       <c r="I8">
-        <v>0.1567526574645424</v>
+        <v>0.3944087482894574</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8531068673672166</v>
+        <v>0.2682223808500623</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5652640150545167</v>
+        <v>0.2036422686686734</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6659788974662462</v>
+        <v>1.581363250051858</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.062880621807267</v>
+        <v>0.3362604749288209</v>
       </c>
       <c r="C9">
-        <v>0.1475646010819531</v>
+        <v>0.06660587944008967</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4353305549220963</v>
+        <v>0.1984486563631336</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.1471420829190393</v>
+        <v>0.3078013198785357</v>
       </c>
       <c r="H9">
-        <v>0.1719399605339405</v>
+        <v>0.4937586246828687</v>
       </c>
       <c r="I9">
-        <v>0.1340048979572064</v>
+        <v>0.3797266186880748</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.115435392663841</v>
+        <v>0.3540574543959849</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7643163323578293</v>
+        <v>0.2611992849678728</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.6214559338967831</v>
+        <v>1.532154169864469</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.252575557087141</v>
+        <v>0.397196829831131</v>
       </c>
       <c r="C10">
-        <v>0.1681711035419085</v>
+        <v>0.07339360534443529</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5209714075372744</v>
+        <v>0.219090740279313</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.1468832146583381</v>
+        <v>0.3012937711673658</v>
       </c>
       <c r="H10">
-        <v>0.1625078631422809</v>
+        <v>0.4854542923017675</v>
       </c>
       <c r="I10">
-        <v>0.1201744539143803</v>
+        <v>0.3701740173393162</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.30821152154752</v>
+        <v>0.4165887087972067</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9130428818147038</v>
+        <v>0.3036619270975933</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6016768737809031</v>
+        <v>1.501291653654576</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.338993360583828</v>
+        <v>0.4248213126291773</v>
       </c>
       <c r="C11">
-        <v>0.1775653445757257</v>
+        <v>0.07646668528660427</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5609765170024872</v>
+        <v>0.2286321592796909</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.1477199676662195</v>
+        <v>0.2986320521281485</v>
       </c>
       <c r="H11">
-        <v>0.1587700751078742</v>
+        <v>0.4819277802782125</v>
       </c>
       <c r="I11">
-        <v>0.1145790164784106</v>
+        <v>0.3660968920462917</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.396021530055606</v>
+        <v>0.4449155111551875</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9814416569527893</v>
+        <v>0.323018181036467</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.5958535372243432</v>
+        <v>1.488403868148055</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.371743961219323</v>
+        <v>0.4352676766906711</v>
       </c>
       <c r="C12">
-        <v>0.1811266567608811</v>
+        <v>0.07762820978884122</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5762957986866439</v>
+        <v>0.232267233118975</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.1481849295693891</v>
+        <v>0.2976672094204105</v>
       </c>
       <c r="H12">
-        <v>0.1574388460901446</v>
+        <v>0.4806284961997633</v>
       </c>
       <c r="I12">
-        <v>0.1125665776212017</v>
+        <v>0.3645916440329806</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.429298230471687</v>
+        <v>0.455624490508626</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.007467002872566</v>
+        <v>0.3303535754939944</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.5941376293257008</v>
+        <v>1.48368951637697</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.364689238354458</v>
+        <v>0.4330185173948848</v>
       </c>
       <c r="C13">
-        <v>0.180359473298509</v>
+        <v>0.07737815298469286</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5729886166934577</v>
+        <v>0.2314833757394084</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.1480780245875764</v>
+        <v>0.297873086556379</v>
       </c>
       <c r="H13">
-        <v>0.1577217278719871</v>
+        <v>0.4809067132195253</v>
       </c>
       <c r="I13">
-        <v>0.1129951536338929</v>
+        <v>0.3649141050341882</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.422130246944278</v>
+        <v>0.4533189207710393</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.001856161986595</v>
+        <v>0.3287735198494843</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5944848752737499</v>
+        <v>1.48469744904159</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.341687201211272</v>
+        <v>0.4256810341974813</v>
       </c>
       <c r="C14">
-        <v>0.1778582512970388</v>
+        <v>0.07656228879024241</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5622333138259563</v>
+        <v>0.2289307780357959</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.1477551875485972</v>
+        <v>0.2985518094169848</v>
       </c>
       <c r="H14">
-        <v>0.1586588388927908</v>
+        <v>0.4818201632398171</v>
       </c>
       <c r="I14">
-        <v>0.1144112811725559</v>
+        <v>0.3659722789351072</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.398758673626986</v>
+        <v>0.4457969051404405</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9835801835522844</v>
+        <v>0.3236215567853051</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5957023673159085</v>
+        <v>1.488012687213413</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.327601434425674</v>
+        <v>0.4211847154823545</v>
       </c>
       <c r="C15">
-        <v>0.1763267220508737</v>
+        <v>0.07606226184877585</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.555668158213166</v>
+        <v>0.2273701020768613</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.1475770616325605</v>
+        <v>0.2989731632592765</v>
       </c>
       <c r="H15">
-        <v>0.1592439546505489</v>
+        <v>0.4823843832224526</v>
       </c>
       <c r="I15">
-        <v>0.1152927555011285</v>
+        <v>0.3666254793166086</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.384446420549864</v>
+        <v>0.4411871202756856</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9724023366554206</v>
+        <v>0.3204665565227955</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5965128431012801</v>
+        <v>1.490064991426436</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.246931139179566</v>
+        <v>0.3953895215969681</v>
       </c>
       <c r="C16">
-        <v>0.1675576591710666</v>
+        <v>0.07319247059278666</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5183796912826608</v>
+        <v>0.2184702462701722</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.1468486492318135</v>
+        <v>0.3014737425430098</v>
       </c>
       <c r="H16">
-        <v>0.1627636558111192</v>
+        <v>0.4856898133255072</v>
       </c>
       <c r="I16">
-        <v>0.1205546687070953</v>
+        <v>0.3704458744041599</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.302475951206617</v>
+        <v>0.414735035267114</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9085892617320468</v>
+        <v>0.3023977407207923</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.6021240732367659</v>
+        <v>1.502157106906097</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.197480036638126</v>
+        <v>0.3795400086528105</v>
       </c>
       <c r="C17">
-        <v>0.1621839964889205</v>
+        <v>0.07142813286029082</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4957860504061387</v>
+        <v>0.2130493485908289</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.1466537635574667</v>
+        <v>0.3030843551572886</v>
       </c>
       <c r="H17">
-        <v>0.1650677308140018</v>
+        <v>0.4877819265258125</v>
       </c>
       <c r="I17">
-        <v>0.1239653539496928</v>
+        <v>0.3728583604696762</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.252224989800027</v>
+        <v>0.3984765962592007</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8696441517956259</v>
+        <v>0.2913232122218687</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6064020693954291</v>
+        <v>1.509870466857251</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.169048277182554</v>
+        <v>0.3704148126850839</v>
       </c>
       <c r="C18">
-        <v>0.1590950476569617</v>
+        <v>0.07041195397079036</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.482888035612369</v>
+        <v>0.2099456144250738</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.1466308244817256</v>
+        <v>0.3040388331543795</v>
       </c>
       <c r="H18">
-        <v>0.1664447196674175</v>
+        <v>0.4890088953551768</v>
       </c>
       <c r="I18">
-        <v>0.1259922084550702</v>
+        <v>0.3742712173347673</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.223332266184968</v>
+        <v>0.3891140123917864</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8473127035863897</v>
+        <v>0.2849571882905693</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.6091593499985066</v>
+        <v>1.514415372385741</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.159423459064499</v>
+        <v>0.367323656644345</v>
       </c>
       <c r="C19">
-        <v>0.1580494693609467</v>
+        <v>0.07006765869373055</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.478537116068388</v>
+        <v>0.2088971800801289</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.1466380508605596</v>
+        <v>0.3043668238346697</v>
       </c>
       <c r="H19">
-        <v>0.1669196940971744</v>
+        <v>0.4894283858767352</v>
       </c>
       <c r="I19">
-        <v>0.1266894641123528</v>
+        <v>0.3747539223064198</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.213551210427539</v>
+        <v>0.3859421057268833</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8397629556771378</v>
+        <v>0.2828024100169984</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.6101429091729926</v>
+        <v>1.515972803653455</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.2027429741361</v>
+        <v>0.3812281500383108</v>
       </c>
       <c r="C20">
-        <v>0.162755834620981</v>
+        <v>0.07161609281349968</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4981809790976044</v>
+        <v>0.2136249389561087</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.1466652060381364</v>
+        <v>0.3029099937189557</v>
       </c>
       <c r="H20">
-        <v>0.1648170696528695</v>
+        <v>0.4875567707023976</v>
       </c>
       <c r="I20">
-        <v>0.123595496531486</v>
+        <v>0.3725989324852694</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.257573165676888</v>
+        <v>0.4002084946083926</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8737826876269423</v>
+        <v>0.2925017272415857</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6059157321399482</v>
+        <v>1.509038146509823</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.348442682042759</v>
+        <v>0.4278366276667214</v>
       </c>
       <c r="C21">
-        <v>0.1785928060719044</v>
+        <v>0.07680198772935398</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5653876227366013</v>
+        <v>0.2296799406823595</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.1478459032380854</v>
+        <v>0.2983512813139981</v>
       </c>
       <c r="H21">
-        <v>0.1583812629426831</v>
+        <v>0.4815508801904116</v>
       </c>
       <c r="I21">
-        <v>0.1139923892032044</v>
+        <v>0.3656604174962723</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.405622723753481</v>
+        <v>0.4480067908509398</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9889447644191307</v>
+        <v>0.3251346621657518</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.5953312097994967</v>
+        <v>1.487034414114206</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.44382196097169</v>
+        <v>0.4582135617123413</v>
       </c>
       <c r="C22">
-        <v>0.1889665439041011</v>
+        <v>0.08017850578724506</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6103134645263566</v>
+        <v>0.2403008194580138</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.1494863583600292</v>
+        <v>0.2956231466021819</v>
       </c>
       <c r="H22">
-        <v>0.1546682134202655</v>
+        <v>0.4778362793113331</v>
       </c>
       <c r="I22">
-        <v>0.10833980085817</v>
+        <v>0.3613511349084604</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.502531510440804</v>
+        <v>0.4791418842526696</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.064942944495378</v>
+        <v>0.3464947636152402</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.5912822111755673</v>
+        <v>1.473621284200007</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.392899107964865</v>
+        <v>0.4420087591495587</v>
       </c>
       <c r="C23">
-        <v>0.1834273917974656</v>
+        <v>0.07837758605002421</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5862370584294894</v>
+        <v>0.2346204784835066</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.1485275509296073</v>
+        <v>0.2970561634278468</v>
       </c>
       <c r="H23">
-        <v>0.1566031892214852</v>
+        <v>0.4797995583463504</v>
       </c>
       <c r="I23">
-        <v>0.1112974363753274</v>
+        <v>0.3636304277486921</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.450792807970657</v>
+        <v>0.4625342181356018</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.024308079436473</v>
+        <v>0.3350915330095106</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.5931693528659849</v>
+        <v>1.48069147312242</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.200363605876817</v>
+        <v>0.380464982072823</v>
       </c>
       <c r="C24">
-        <v>0.1624973053017982</v>
+        <v>0.07153112183669919</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4970979487098077</v>
+        <v>0.2133646746605393</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.1466597561675442</v>
+        <v>0.3029887337138248</v>
       </c>
       <c r="H24">
-        <v>0.1649302308698921</v>
+        <v>0.4876584883158657</v>
       </c>
       <c r="I24">
-        <v>0.1237625039502905</v>
+        <v>0.3727161392481939</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.255155264637636</v>
+        <v>0.3994255512554901</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8719114743119576</v>
+        <v>0.2919689178844536</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6061346800775169</v>
+        <v>1.509414094701967</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9930829563659245</v>
+        <v>0.3137393512328686</v>
       </c>
       <c r="C25">
-        <v>0.1399877194813257</v>
+        <v>0.06409366667706706</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4045974334480817</v>
+        <v>0.1909797066214907</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.148015450671366</v>
+        <v>0.3104615160377762</v>
       </c>
       <c r="H25">
-        <v>0.1758742233376012</v>
+        <v>0.4970394156165341</v>
       </c>
       <c r="I25">
-        <v>0.139675367960427</v>
+        <v>0.3834819529645177</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.044493110292336</v>
+        <v>0.3309284167116857</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7100951465976095</v>
+        <v>0.2455979453934702</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6313476855755056</v>
+        <v>1.54453844681214</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_229/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_229/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2643290936523215</v>
+        <v>0.8405003574966088</v>
       </c>
       <c r="C2">
-        <v>0.0585737639768098</v>
+        <v>0.123434477927006</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1749528900206911</v>
+        <v>0.3389552046629376</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.3168819009209329</v>
+        <v>0.1515439854190888</v>
       </c>
       <c r="H2">
-        <v>0.5047245492601675</v>
+        <v>0.1854621745804721</v>
       </c>
       <c r="I2">
-        <v>0.3922376018453271</v>
+        <v>0.1533004788236543</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2801417449290113</v>
+        <v>0.8893815885587628</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2115747923263669</v>
+        <v>0.5925472630842492</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.573953420813424</v>
+        <v>0.6584570645230485</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2306756071028531</v>
+        <v>0.7369797038563206</v>
       </c>
       <c r="C3">
-        <v>0.05480638212192446</v>
+        <v>0.1122125502621429</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.164369629743625</v>
+        <v>0.2957017301040281</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.3218032406899951</v>
+        <v>0.1553438300666024</v>
       </c>
       <c r="H3">
-        <v>0.5104184799795739</v>
+        <v>0.1928418130003742</v>
       </c>
       <c r="I3">
-        <v>0.3986876248649338</v>
+        <v>0.1636260659151674</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2455103952596005</v>
+        <v>0.7841190551604029</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1885901188429813</v>
+        <v>0.5136032535237689</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.596099716611093</v>
+        <v>0.681647298546288</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2099324705357617</v>
+        <v>0.6733210824087621</v>
       </c>
       <c r="C4">
-        <v>0.05248045025592774</v>
+        <v>0.1053156608546573</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1580070184653621</v>
+        <v>0.2696593847243278</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.3251053397435051</v>
+        <v>0.1583190843047362</v>
       </c>
       <c r="H4">
-        <v>0.5141542175905975</v>
+        <v>0.1977853856460783</v>
       </c>
       <c r="I4">
-        <v>0.4029023134959324</v>
+        <v>0.1704737530090874</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2241445995302058</v>
+        <v>0.7193761045801068</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1745133791047309</v>
+        <v>0.4654025105361228</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.610786782893364</v>
+        <v>0.6981038800828046</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2014600260715156</v>
+        <v>0.6473502755351888</v>
       </c>
       <c r="C5">
-        <v>0.05152947622295301</v>
+        <v>0.1025028581235858</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1554480970526342</v>
+        <v>0.2591637122918797</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.3265213432891585</v>
+        <v>0.1596855287279695</v>
       </c>
       <c r="H5">
-        <v>0.5157368275565588</v>
+        <v>0.1999004370019541</v>
       </c>
       <c r="I5">
-        <v>0.4046837377835857</v>
+        <v>0.1733875149912656</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2154128216540272</v>
+        <v>0.6929595769918251</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1687861294694457</v>
+        <v>0.4458171287945873</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.617045488359814</v>
+        <v>0.7053451683281011</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2000520264630268</v>
+        <v>0.6430359238208325</v>
       </c>
       <c r="C6">
-        <v>0.05137138015740561</v>
+        <v>0.1020356406660454</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1550252316321945</v>
+        <v>0.2574276059453879</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.32676071599154</v>
+        <v>0.1599215150949753</v>
       </c>
       <c r="H6">
-        <v>0.516003258891967</v>
+        <v>0.2002576188172256</v>
       </c>
       <c r="I6">
-        <v>0.404983400030412</v>
+        <v>0.1738786631893436</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2139614220102715</v>
+        <v>0.688570977947137</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1678356787429323</v>
+        <v>0.4425681014048521</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.61810125890571</v>
+        <v>0.7065792563097588</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2098182861229816</v>
+        <v>0.6729709566021143</v>
       </c>
       <c r="C7">
-        <v>0.05246763770493601</v>
+        <v>0.1052777363548358</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1579723709728142</v>
+        <v>0.2695173799737276</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.3251241517059249</v>
+        <v>0.1583368987238245</v>
       </c>
       <c r="H7">
-        <v>0.514175317195722</v>
+        <v>0.1978135071603155</v>
       </c>
       <c r="I7">
-        <v>0.40292607973117</v>
+        <v>0.1705125555703013</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2240269403091162</v>
+        <v>0.7190199833611786</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1744361022907484</v>
+        <v>0.4651381597947832</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.610870082518218</v>
+        <v>0.6981994011268853</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2527422798815451</v>
+        <v>0.8048232429804898</v>
       </c>
       <c r="C8">
-        <v>0.05727745458470679</v>
+        <v>0.1195661387923082</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1712755290796579</v>
+        <v>0.3239264802909076</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.3185205079835178</v>
+        <v>0.1527163027363976</v>
       </c>
       <c r="H8">
-        <v>0.5066380835681947</v>
+        <v>0.1879190980488161</v>
       </c>
       <c r="I8">
-        <v>0.3944087482894574</v>
+        <v>0.1567526574645424</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2682223808500623</v>
+        <v>0.8531068673670461</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2036422686686734</v>
+        <v>0.5652640150545167</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.581363250051858</v>
+        <v>0.6659788974662035</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3362604749288209</v>
+        <v>1.062880621807352</v>
       </c>
       <c r="C9">
-        <v>0.06660587944008967</v>
+        <v>0.14756460108174</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1984486563631336</v>
+        <v>0.4353305549221105</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.3078013198785357</v>
+        <v>0.1471420829190464</v>
       </c>
       <c r="H9">
-        <v>0.4937586246828687</v>
+        <v>0.1719399605339476</v>
       </c>
       <c r="I9">
-        <v>0.3797266186880748</v>
+        <v>0.1340048979572224</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3540574543959849</v>
+        <v>1.115435392663869</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2611992849678728</v>
+        <v>0.7643163323578364</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.532154169864469</v>
+        <v>0.6214559338967973</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.397196829831131</v>
+        <v>1.252575557087226</v>
       </c>
       <c r="C10">
-        <v>0.07339360534443529</v>
+        <v>0.1681711035414821</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.219090740279313</v>
+        <v>0.5209714075372744</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.3012937711673658</v>
+        <v>0.1468832146582812</v>
       </c>
       <c r="H10">
-        <v>0.4854542923017675</v>
+        <v>0.1625078631422738</v>
       </c>
       <c r="I10">
-        <v>0.3701740173393162</v>
+        <v>0.1201744539143927</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4165887087972067</v>
+        <v>1.30821152154752</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3036619270975933</v>
+        <v>0.9130428818147109</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.501291653654576</v>
+        <v>0.6016768737809031</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4248213126291773</v>
+        <v>1.338993360583828</v>
       </c>
       <c r="C11">
-        <v>0.07646668528660427</v>
+        <v>0.1775653445759673</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2286321592796909</v>
+        <v>0.5609765170024943</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.2986320521281485</v>
+        <v>0.1477199676662266</v>
       </c>
       <c r="H11">
-        <v>0.4819277802782125</v>
+        <v>0.1587700751079879</v>
       </c>
       <c r="I11">
-        <v>0.3660968920462917</v>
+        <v>0.1145790164784088</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4449155111551875</v>
+        <v>1.396021530055634</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.323018181036467</v>
+        <v>0.9814416569527893</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.488403868148055</v>
+        <v>0.5958535372243858</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4352676766906711</v>
+        <v>1.371743961219352</v>
       </c>
       <c r="C12">
-        <v>0.07762820978884122</v>
+        <v>0.1811266567610375</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.232267233118975</v>
+        <v>0.5762957986866439</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.2976672094204105</v>
+        <v>0.1481849295693891</v>
       </c>
       <c r="H12">
-        <v>0.4806284961997633</v>
+        <v>0.1574388460901446</v>
       </c>
       <c r="I12">
-        <v>0.3645916440329806</v>
+        <v>0.1125665776212035</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.455624490508626</v>
+        <v>1.429298230471574</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3303535754939944</v>
+        <v>1.007467002872573</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.48368951637697</v>
+        <v>0.5941376293257008</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4330185173948848</v>
+        <v>1.364689238354458</v>
       </c>
       <c r="C13">
-        <v>0.07737815298469286</v>
+        <v>0.1803594732987506</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2314833757394084</v>
+        <v>0.5729886166934293</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.297873086556379</v>
+        <v>0.148078024587619</v>
       </c>
       <c r="H13">
-        <v>0.4809067132195253</v>
+        <v>0.1577217278721079</v>
       </c>
       <c r="I13">
-        <v>0.3649141050341882</v>
+        <v>0.1129951536338893</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4533189207710393</v>
+        <v>1.422130246944306</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3287735198494843</v>
+        <v>1.001856161986595</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.48469744904159</v>
+        <v>0.5944848752737784</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4256810341974813</v>
+        <v>1.341687201211386</v>
       </c>
       <c r="C14">
-        <v>0.07656228879024241</v>
+        <v>0.1778582512968114</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2289307780357959</v>
+        <v>0.5622333138259279</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.2985518094169848</v>
+        <v>0.1477551875485901</v>
       </c>
       <c r="H14">
-        <v>0.4818201632398171</v>
+        <v>0.1586588388927908</v>
       </c>
       <c r="I14">
-        <v>0.3659722789351072</v>
+        <v>0.1144112811725417</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4457969051404405</v>
+        <v>1.398758673626958</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3236215567853051</v>
+        <v>0.9835801835522773</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.488012687213413</v>
+        <v>0.5957023673158943</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4211847154823545</v>
+        <v>1.327601434425816</v>
       </c>
       <c r="C15">
-        <v>0.07606226184877585</v>
+        <v>0.1763267220511011</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2273701020768613</v>
+        <v>0.555668158213166</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.2989731632592765</v>
+        <v>0.1475770616326244</v>
       </c>
       <c r="H15">
-        <v>0.4823843832224526</v>
+        <v>0.1592439546505418</v>
       </c>
       <c r="I15">
-        <v>0.3666254793166086</v>
+        <v>0.1152927555011143</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4411871202756856</v>
+        <v>1.384446420549892</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3204665565227955</v>
+        <v>0.9724023366554206</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.490064991426436</v>
+        <v>0.5965128431013085</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3953895215969681</v>
+        <v>1.246931139179594</v>
       </c>
       <c r="C16">
-        <v>0.07319247059278666</v>
+        <v>0.1675576591713508</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2184702462701722</v>
+        <v>0.5183796912826537</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.3014737425430098</v>
+        <v>0.1468486492317496</v>
       </c>
       <c r="H16">
-        <v>0.4856898133255072</v>
+        <v>0.1627636558111192</v>
       </c>
       <c r="I16">
-        <v>0.3704458744041599</v>
+        <v>0.1205546687070917</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.414735035267114</v>
+        <v>1.302475951206702</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3023977407207923</v>
+        <v>0.9085892617320539</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.502157106906097</v>
+        <v>0.6021240732368227</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3795400086528105</v>
+        <v>1.197480036638098</v>
       </c>
       <c r="C17">
-        <v>0.07142813286029082</v>
+        <v>0.1621839964889205</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2130493485908289</v>
+        <v>0.4957860504061955</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.3030843551572886</v>
+        <v>0.1466537635574738</v>
       </c>
       <c r="H17">
-        <v>0.4877819265258125</v>
+        <v>0.1650677308140018</v>
       </c>
       <c r="I17">
-        <v>0.3728583604696762</v>
+        <v>0.1239653539496945</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3984765962592007</v>
+        <v>1.252224989800141</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2913232122218687</v>
+        <v>0.8696441517956472</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.509870466857251</v>
+        <v>0.6064020693954433</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3704148126850839</v>
+        <v>1.169048277182441</v>
       </c>
       <c r="C18">
-        <v>0.07041195397079036</v>
+        <v>0.1590950476569759</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2099456144250738</v>
+        <v>0.4828880356123619</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.3040388331543795</v>
+        <v>0.1466308244817256</v>
       </c>
       <c r="H18">
-        <v>0.4890088953551768</v>
+        <v>0.1664447196674246</v>
       </c>
       <c r="I18">
-        <v>0.3742712173347673</v>
+        <v>0.1259922084550862</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3891140123917864</v>
+        <v>1.22333226618494</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2849571882905693</v>
+        <v>0.8473127035863897</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.514415372385741</v>
+        <v>0.6091593499984924</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.367323656644345</v>
+        <v>1.159423459064385</v>
       </c>
       <c r="C19">
-        <v>0.07006765869373055</v>
+        <v>0.158049469360904</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2088971800801289</v>
+        <v>0.478537116068388</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.3043668238346697</v>
+        <v>0.1466380508605596</v>
       </c>
       <c r="H19">
-        <v>0.4894283858767352</v>
+        <v>0.1669196940971673</v>
       </c>
       <c r="I19">
-        <v>0.3747539223064198</v>
+        <v>0.1266894641123351</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3859421057268833</v>
+        <v>1.213551210427596</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2828024100169984</v>
+        <v>0.8397629556771378</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.515972803653455</v>
+        <v>0.6101429091730495</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3812281500383108</v>
+        <v>1.202742974136186</v>
       </c>
       <c r="C20">
-        <v>0.07161609281349968</v>
+        <v>0.1627558346212226</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2136249389561087</v>
+        <v>0.4981809790975831</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.3029099937189557</v>
+        <v>0.1466652060382074</v>
       </c>
       <c r="H20">
-        <v>0.4875567707023976</v>
+        <v>0.1648170696527487</v>
       </c>
       <c r="I20">
-        <v>0.3725989324852694</v>
+        <v>0.123595496531486</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4002084946083926</v>
+        <v>1.257573165676888</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2925017272415857</v>
+        <v>0.8737826876269494</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.509038146509823</v>
+        <v>0.6059157321399482</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4278366276667214</v>
+        <v>1.348442682042617</v>
       </c>
       <c r="C21">
-        <v>0.07680198772935398</v>
+        <v>0.1785928060721176</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2296799406823595</v>
+        <v>0.5653876227365586</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.2983512813139981</v>
+        <v>0.1478459032380854</v>
       </c>
       <c r="H21">
-        <v>0.4815508801904116</v>
+        <v>0.1583812629426689</v>
       </c>
       <c r="I21">
-        <v>0.3656604174962723</v>
+        <v>0.1139923892032026</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4480067908509398</v>
+        <v>1.40562272375351</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3251346621657518</v>
+        <v>0.9889447644191378</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.487034414114206</v>
+        <v>0.5953312097994825</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4582135617123413</v>
+        <v>1.443821960971604</v>
       </c>
       <c r="C22">
-        <v>0.08017850578724506</v>
+        <v>0.1889665439040442</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2403008194580138</v>
+        <v>0.6103134645263566</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.2956231466021819</v>
+        <v>0.1494863583600221</v>
       </c>
       <c r="H22">
-        <v>0.4778362793113331</v>
+        <v>0.1546682134202726</v>
       </c>
       <c r="I22">
-        <v>0.3613511349084604</v>
+        <v>0.1083398008581682</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4791418842526696</v>
+        <v>1.502531510440804</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3464947636152402</v>
+        <v>1.064942944495357</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.473621284200007</v>
+        <v>0.5912822111755673</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4420087591495587</v>
+        <v>1.392899107964865</v>
       </c>
       <c r="C23">
-        <v>0.07837758605002421</v>
+        <v>0.1834273917970819</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2346204784835066</v>
+        <v>0.5862370584294752</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.2970561634278468</v>
+        <v>0.1485275509295363</v>
       </c>
       <c r="H23">
-        <v>0.4797995583463504</v>
+        <v>0.1566031892214923</v>
       </c>
       <c r="I23">
-        <v>0.3636304277486921</v>
+        <v>0.1112974363753434</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4625342181356018</v>
+        <v>1.450792807970714</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3350915330095106</v>
+        <v>1.02430807943648</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.48069147312242</v>
+        <v>0.593169352866056</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.380464982072823</v>
+        <v>1.200363605876817</v>
       </c>
       <c r="C24">
-        <v>0.07153112183669919</v>
+        <v>0.1624973053017555</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2133646746605393</v>
+        <v>0.4970979487098006</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.3029887337138248</v>
+        <v>0.1466597561676011</v>
       </c>
       <c r="H24">
-        <v>0.4876584883158657</v>
+        <v>0.1649302308698921</v>
       </c>
       <c r="I24">
-        <v>0.3727161392481939</v>
+        <v>0.123762503950287</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3994255512554901</v>
+        <v>1.255155264637608</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2919689178844536</v>
+        <v>0.8719114743119576</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.509414094701967</v>
+        <v>0.6061346800775169</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3137393512328686</v>
+        <v>0.9930829563659813</v>
       </c>
       <c r="C25">
-        <v>0.06409366667706706</v>
+        <v>0.1399877194810557</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1909797066214907</v>
+        <v>0.4045974334480889</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.3104615160377762</v>
+        <v>0.1480154506713021</v>
       </c>
       <c r="H25">
-        <v>0.4970394156165341</v>
+        <v>0.1758742233376012</v>
       </c>
       <c r="I25">
-        <v>0.3834819529645177</v>
+        <v>0.1396753679604252</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3309284167116857</v>
+        <v>1.044493110292365</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2455979453934702</v>
+        <v>0.7100951465976095</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.54453844681214</v>
+        <v>0.6313476855755198</v>
       </c>
     </row>
   </sheetData>
